--- a/output/ConfusionMxs/nb.xlsx
+++ b/output/ConfusionMxs/nb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferjo\Documents\MS Statistics\3rd semester\STAT 6750\Project\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kharu\Documents\OhioState\STAT6750\StatConsultingFinal\output\ConfusionMxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BEB68A-7003-423E-A054-D8CCED8F1D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22765702-B1B0-4FCA-BC5A-29612BB9233D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3372" yWindow="1668" windowWidth="17280" windowHeight="8964" xr2:uid="{72E31490-5181-4DA8-B121-162849E8B29C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{72E31490-5181-4DA8-B121-162849E8B29C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -119,6 +119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,17 +441,17 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
@@ -464,7 +465,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -493,7 +494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -532,7 +533,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>1</v>
@@ -569,7 +570,7 @@
         <v>0.57668711656441718</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>2</v>
@@ -610,7 +611,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>3</v>
@@ -651,7 +652,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>4</v>
@@ -687,12 +688,12 @@
         <f>G8/SUM(C8:K8)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="4">
         <f>N6/N7</f>
         <v>0.6342525399129173</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>5</v>
@@ -729,7 +730,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>6</v>
@@ -766,7 +767,7 @@
         <v>0.75862068965517238</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>7</v>
@@ -803,7 +804,7 @@
         <v>2.0408163265306121E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>8</v>
@@ -840,7 +841,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C13" s="1">
         <f>C4/SUM(C4:C12)</f>
         <v>0.52083333333333337</v>
